--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="117">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -121,133 +121,130 @@
     <t>YYWFWb</t>
   </si>
   <si>
+    <t>YYLWNw</t>
+  </si>
+  <si>
+    <t>YYWLWz</t>
+  </si>
+  <si>
+    <t>YYNWLw</t>
+  </si>
+  <si>
+    <t>AYAA2A1w</t>
+  </si>
+  <si>
+    <t>AAWA2A1a</t>
+  </si>
+  <si>
+    <t>AAAWA1a</t>
+  </si>
+  <si>
+    <t>YAAA2Wa</t>
+  </si>
+  <si>
+    <t>YAAA2Nw</t>
+  </si>
+  <si>
+    <t>YYAA2A1z</t>
+  </si>
+  <si>
+    <t>AYWA2A1a</t>
+  </si>
+  <si>
+    <t>AANWA1a</t>
+  </si>
+  <si>
+    <t>AAANWa</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Ag2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Ag1</t>
+  </si>
+  <si>
+    <t>Sg1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>YYWNWl</t>
-  </si>
-  <si>
-    <t>YYLWNw</t>
-  </si>
-  <si>
-    <t>YYWLWz</t>
-  </si>
-  <si>
-    <t>YYNWLw</t>
-  </si>
-  <si>
-    <t>AYAA2A1w</t>
-  </si>
-  <si>
-    <t>AAWA2A1a</t>
-  </si>
-  <si>
-    <t>AAAWA1a</t>
-  </si>
-  <si>
-    <t>YAAA2Wa</t>
-  </si>
-  <si>
-    <t>YAAA2Nw</t>
-  </si>
-  <si>
-    <t>YYAA2A1z</t>
-  </si>
-  <si>
-    <t>AYWA2A1a</t>
-  </si>
-  <si>
-    <t>AANWA1a</t>
-  </si>
-  <si>
-    <t>AAANWa</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Ag2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Ag1</t>
-  </si>
-  <si>
-    <t>Sg1</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>l</t>
   </si>
   <si>
     <t>AAAA2A1</t>
@@ -728,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,22 +736,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -762,22 +759,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -785,22 +782,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -808,22 +805,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -831,22 +828,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -854,22 +851,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -877,22 +874,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -900,22 +897,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -923,22 +920,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -946,22 +943,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -969,22 +966,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -992,22 +989,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1015,22 +1012,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1038,22 +1035,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1061,22 +1058,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1084,22 +1081,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1107,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1130,22 +1127,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1153,22 +1150,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1176,22 +1173,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1199,22 +1196,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1222,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
       <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1245,22 +1242,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1268,22 +1265,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1291,22 +1288,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1314,22 +1311,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1337,22 +1334,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1360,22 +1357,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1383,22 +1380,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1406,22 +1403,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1429,22 +1426,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1452,22 +1449,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
       <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
         <v>53</v>
       </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1475,22 +1472,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>54</v>
       </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1498,22 +1495,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1521,22 +1518,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1544,22 +1541,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1567,22 +1564,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1590,22 +1587,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1613,22 +1610,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1636,22 +1633,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1659,22 +1656,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1682,22 +1679,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1705,22 +1702,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,22 +1725,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1751,22 +1748,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1774,45 +1771,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
         <v>53</v>
       </c>
-      <c r="E46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" t="s">
-        <v>60</v>
-      </c>
       <c r="G46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1844,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1855,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1866,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1877,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1888,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1899,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1910,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1921,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1932,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1943,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1954,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1965,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1976,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1987,7 +1961,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1998,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2009,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2020,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2031,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2042,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2053,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2064,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2075,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2086,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2097,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2108,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2119,7 +2093,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2130,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2141,7 +2115,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2152,7 +2126,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2163,7 +2137,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2174,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2185,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2196,7 +2170,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2207,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2218,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2229,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2240,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2251,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2262,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2273,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2284,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2295,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2306,7 +2280,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2317,7 +2291,7 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2328,7 +2302,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2339,7 +2313,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2350,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2361,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2372,7 +2346,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2383,7 +2357,7 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2394,7 +2368,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2405,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2416,7 +2390,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2427,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2438,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2449,7 +2423,7 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2460,7 +2434,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2471,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2482,7 +2456,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2493,7 +2467,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2501,10 +2475,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2512,10 +2486,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2523,10 +2497,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2534,10 +2508,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2545,10 +2519,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2556,10 +2530,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2567,10 +2541,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2578,10 +2552,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2589,10 +2563,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2600,10 +2574,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2611,10 +2585,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2622,10 +2596,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2633,10 +2607,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2644,10 +2618,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2655,10 +2629,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2666,10 +2640,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2677,10 +2651,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2688,10 +2662,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2699,10 +2673,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2710,10 +2684,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2721,10 +2695,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2732,10 +2706,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2743,10 +2717,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2754,10 +2728,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2765,10 +2739,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2776,10 +2750,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2803,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -2814,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -2825,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -2836,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -2847,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -2858,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -2869,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -2880,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -2891,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -2902,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -2913,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -2924,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -2935,7 +2909,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -2946,7 +2920,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -2957,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -2968,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -2979,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -2990,7 +2964,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -3001,7 +2975,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -3012,7 +2986,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -3023,7 +2997,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -3034,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -3045,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -3056,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -3067,7 +3041,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -3078,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -3089,7 +3063,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -3100,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -3111,7 +3085,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -3122,7 +3096,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -3133,7 +3107,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -3144,7 +3118,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -3155,7 +3129,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -3166,7 +3140,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -3177,7 +3151,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3188,7 +3162,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3199,7 +3173,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -3210,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -3221,7 +3195,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -3232,7 +3206,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -3243,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -3254,7 +3228,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -3265,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -3276,7 +3250,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -3287,7 +3261,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -3298,7 +3272,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -3309,7 +3283,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -3320,7 +3294,7 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -3331,7 +3305,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -3342,7 +3316,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -3350,10 +3324,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -3361,10 +3335,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -3372,10 +3346,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -3383,10 +3357,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -3394,10 +3368,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -3405,10 +3379,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -3416,10 +3390,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -3427,10 +3401,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -3438,10 +3412,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -3449,10 +3423,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -3460,10 +3434,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -3471,10 +3445,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -3482,10 +3456,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -3493,10 +3467,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -3504,10 +3478,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -3515,10 +3489,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -3526,10 +3500,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -3537,10 +3511,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -3548,10 +3522,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -3559,10 +3533,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -3570,10 +3544,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -3581,10 +3555,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -3592,10 +3566,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -3603,10 +3577,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -3614,10 +3588,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -3625,10 +3599,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -3649,822 +3623,822 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
       <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="s">
-        <v>54</v>
-      </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
         <v>54</v>
       </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
         <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="118">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -121,6 +121,9 @@
     <t>YYWFWb</t>
   </si>
   <si>
+    <t>YYWNWl</t>
+  </si>
+  <si>
     <t>YYLWNw</t>
   </si>
   <si>
@@ -244,7 +247,7 @@
     <t>f</t>
   </si>
   <si>
-    <t>YYWNWl</t>
+    <t>l</t>
   </si>
   <si>
     <t>AAAA2A1</t>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,22 +739,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -759,22 +762,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -782,22 +785,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -805,22 +808,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -828,22 +831,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -851,22 +854,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -874,22 +877,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -897,22 +900,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -920,22 +923,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -943,22 +946,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -966,22 +969,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -989,22 +992,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1012,22 +1015,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1035,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1058,22 +1061,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1081,22 +1084,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1104,22 +1107,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1127,22 +1130,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1150,22 +1153,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1173,22 +1176,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1196,22 +1199,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1219,22 +1222,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1242,22 +1245,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1265,22 +1268,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1288,22 +1291,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1311,22 +1314,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1334,22 +1337,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1357,22 +1360,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1380,22 +1383,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1403,22 +1406,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1426,22 +1429,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1449,22 +1452,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1472,22 +1475,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1495,22 +1498,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
         <v>54</v>
       </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1518,22 +1521,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1541,22 +1544,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1564,22 +1567,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1587,22 +1590,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1610,22 +1613,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1633,22 +1636,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1656,22 +1659,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1679,22 +1682,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1702,22 +1705,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1725,22 +1728,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1748,22 +1751,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1771,22 +1774,45 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
         <v>53</v>
       </c>
-      <c r="G46" t="s">
-        <v>65</v>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1818,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1829,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1840,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1851,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1862,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1873,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1884,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1895,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1906,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1917,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1928,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1939,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1950,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1961,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1972,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1983,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1994,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2005,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2016,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2027,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2038,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2049,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2060,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2071,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2082,7 +2108,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2093,7 +2119,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2104,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2115,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2126,7 +2152,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2137,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2148,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2159,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2170,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2181,7 +2207,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2192,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2203,7 +2229,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2214,7 +2240,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2225,7 +2251,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2236,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2247,7 +2273,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2258,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2269,7 +2295,7 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2280,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2291,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2302,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2313,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2324,7 +2350,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2335,7 +2361,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2346,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2357,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2368,7 +2394,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2379,7 +2405,7 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2390,7 +2416,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2401,7 +2427,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2412,7 +2438,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2423,7 +2449,7 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2434,7 +2460,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2445,7 +2471,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2456,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2467,7 +2493,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2475,10 +2501,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2486,10 +2512,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2497,10 +2523,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2508,10 +2534,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2519,10 +2545,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2530,10 +2556,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2541,10 +2567,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2552,10 +2578,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2563,10 +2589,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2574,10 +2600,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2585,10 +2611,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2596,10 +2622,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2607,10 +2633,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2618,10 +2644,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2629,10 +2655,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2640,10 +2666,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2651,10 +2677,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2662,10 +2688,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2673,10 +2699,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2684,10 +2710,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2695,10 +2721,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2706,10 +2732,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2717,10 +2743,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2728,10 +2754,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2739,10 +2765,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2750,10 +2776,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2777,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -2788,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -2799,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -2810,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -2821,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -2832,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -2843,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -2854,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -2865,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -2876,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -2887,7 +2913,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -2898,7 +2924,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -2909,7 +2935,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -2920,7 +2946,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -2931,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -2942,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -2953,7 +2979,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -2964,7 +2990,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -2975,7 +3001,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -2986,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -2997,7 +3023,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -3008,7 +3034,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -3019,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -3030,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -3041,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -3052,7 +3078,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -3063,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -3074,7 +3100,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -3085,7 +3111,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -3096,7 +3122,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -3107,7 +3133,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -3118,7 +3144,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -3129,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -3140,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -3151,7 +3177,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3162,7 +3188,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3173,7 +3199,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -3184,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -3195,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -3206,7 +3232,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -3217,7 +3243,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -3228,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -3239,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -3250,7 +3276,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -3261,7 +3287,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -3272,7 +3298,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -3283,7 +3309,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -3294,7 +3320,7 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -3305,7 +3331,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -3316,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -3324,10 +3350,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -3335,10 +3361,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -3346,10 +3372,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -3357,10 +3383,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -3368,10 +3394,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -3379,10 +3405,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -3390,10 +3416,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -3401,10 +3427,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -3412,10 +3438,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -3423,10 +3449,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -3434,10 +3460,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -3445,10 +3471,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -3456,10 +3482,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -3467,10 +3493,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -3478,10 +3504,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -3489,10 +3515,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -3500,10 +3526,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -3511,10 +3537,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -3522,10 +3548,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -3533,10 +3559,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -3544,10 +3570,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -3555,10 +3581,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -3566,10 +3592,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -3577,10 +3603,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -3588,10 +3614,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -3599,10 +3625,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -3623,822 +3649,822 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
         <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
         <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="138">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -52,15 +52,75 @@
     <t>SPSPSPSPSPsp</t>
   </si>
   <si>
+    <t>ANWFWb</t>
+  </si>
+  <si>
+    <t>ANWFWbd</t>
+  </si>
+  <si>
+    <t>AANWFw</t>
+  </si>
+  <si>
+    <t>AANWFwd</t>
+  </si>
+  <si>
+    <t>AAANWf</t>
+  </si>
+  <si>
+    <t>YAAA2Nw</t>
+  </si>
+  <si>
+    <t>YAAA2Nwd</t>
+  </si>
+  <si>
+    <t>YYAA2A1z</t>
+  </si>
+  <si>
+    <t>YYBA2A1a</t>
+  </si>
+  <si>
+    <t>YYWBA1a</t>
+  </si>
+  <si>
+    <t>YYFWBa</t>
+  </si>
+  <si>
+    <t>AAANBo</t>
+  </si>
+  <si>
+    <t>AAANBod</t>
+  </si>
+  <si>
+    <t>AAAA2Nb</t>
+  </si>
+  <si>
+    <t>AAAA2Nbd</t>
+  </si>
+  <si>
+    <t>AAAA2A1z</t>
+  </si>
+  <si>
+    <t>YAAA2A1a</t>
+  </si>
+  <si>
+    <t>YYAA2A1a</t>
+  </si>
+  <si>
+    <t>YYOA2A1a</t>
+  </si>
+  <si>
+    <t>AYBOA1a</t>
+  </si>
+  <si>
+    <t>AANBOa</t>
+  </si>
+  <si>
     <t>YABA2Ba</t>
   </si>
   <si>
     <t>AYABA1b</t>
   </si>
   <si>
-    <t>AYABA1bd</t>
-  </si>
-  <si>
     <t>YAOA2OFa</t>
   </si>
   <si>
@@ -70,94 +130,88 @@
     <t>YYNBNb</t>
   </si>
   <si>
+    <t>YYNBNbd</t>
+  </si>
+  <si>
     <t>YYBNBz</t>
   </si>
   <si>
+    <t>YYBNBzd</t>
+  </si>
+  <si>
     <t>YYBNBr</t>
   </si>
   <si>
+    <t>YYBNBrd</t>
+  </si>
+  <si>
+    <t>YYNWNw</t>
+  </si>
+  <si>
+    <t>YYNWNwd</t>
+  </si>
+  <si>
+    <t>YYWNWz</t>
+  </si>
+  <si>
+    <t>YYWNWzd</t>
+  </si>
+  <si>
     <t>YYNWBr</t>
   </si>
   <si>
+    <t>YYNWBrd</t>
+  </si>
+  <si>
     <t>YYWBNw</t>
   </si>
   <si>
+    <t>YYWBNwd</t>
+  </si>
+  <si>
     <t>YYBNWb</t>
   </si>
   <si>
-    <t>AAAA2A1z</t>
+    <t>YYBNWbd</t>
   </si>
   <si>
     <t>AAAA2Nw</t>
   </si>
   <si>
+    <t>AAAA2Nwd</t>
+  </si>
+  <si>
     <t>AAANWb</t>
   </si>
   <si>
+    <t>AAANWbd</t>
+  </si>
+  <si>
     <t>AANWBa</t>
   </si>
   <si>
     <t>AYWBA1a</t>
   </si>
   <si>
-    <t>YYBA2A1a</t>
-  </si>
-  <si>
-    <t>YYAA2A1a</t>
-  </si>
-  <si>
-    <t>YAAA2A1a</t>
-  </si>
-  <si>
     <t>YYFWBz</t>
   </si>
   <si>
+    <t>YYFWBzd</t>
+  </si>
+  <si>
     <t>YYBNWf</t>
   </si>
   <si>
     <t>YYNWFw</t>
   </si>
   <si>
+    <t>YYNWFwd</t>
+  </si>
+  <si>
     <t>YYWFWb</t>
   </si>
   <si>
-    <t>YYWNWl</t>
-  </si>
-  <si>
-    <t>YYLWNw</t>
-  </si>
-  <si>
-    <t>YYWLWz</t>
-  </si>
-  <si>
-    <t>YYNWLw</t>
-  </si>
-  <si>
-    <t>AYAA2A1w</t>
-  </si>
-  <si>
-    <t>AAWA2A1a</t>
-  </si>
-  <si>
-    <t>AAAWA1a</t>
-  </si>
-  <si>
-    <t>YAAA2Wa</t>
-  </si>
-  <si>
-    <t>YAAA2Nw</t>
-  </si>
-  <si>
-    <t>YYAA2A1z</t>
-  </si>
-  <si>
-    <t>AYWA2A1a</t>
-  </si>
-  <si>
-    <t>AANWA1a</t>
-  </si>
-  <si>
-    <t>AAANWa</t>
+    <t>YYWFWbd</t>
   </si>
   <si>
     <t>A</t>
@@ -172,24 +226,21 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -232,22 +283,34 @@
     <t>bd</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>z</t>
+    <t>zd</t>
   </si>
   <si>
     <t>r</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>rd</t>
   </si>
   <si>
     <t>AAAA2A1</t>
@@ -283,6 +346,48 @@
     <t>SPSPSPSPSP</t>
   </si>
   <si>
+    <t>ANWFW</t>
+  </si>
+  <si>
+    <t>AANWF</t>
+  </si>
+  <si>
+    <t>AAANW</t>
+  </si>
+  <si>
+    <t>YAAA2N</t>
+  </si>
+  <si>
+    <t>YYAA2A1</t>
+  </si>
+  <si>
+    <t>YYBA2A1</t>
+  </si>
+  <si>
+    <t>YYWBA1</t>
+  </si>
+  <si>
+    <t>YYFWB</t>
+  </si>
+  <si>
+    <t>AAANB</t>
+  </si>
+  <si>
+    <t>AAAA2N</t>
+  </si>
+  <si>
+    <t>YAAA2A1</t>
+  </si>
+  <si>
+    <t>YYOA2A1</t>
+  </si>
+  <si>
+    <t>AYBOA1</t>
+  </si>
+  <si>
+    <t>AANBO</t>
+  </si>
+  <si>
     <t>YABA2B</t>
   </si>
   <si>
@@ -301,6 +406,12 @@
     <t>YYBNB</t>
   </si>
   <si>
+    <t>YYNWN</t>
+  </si>
+  <si>
+    <t>YYWNW</t>
+  </si>
+  <si>
     <t>YYNWB</t>
   </si>
   <si>
@@ -310,67 +421,16 @@
     <t>YYBNW</t>
   </si>
   <si>
-    <t>AAAA2N</t>
-  </si>
-  <si>
-    <t>AAANW</t>
-  </si>
-  <si>
     <t>AANWB</t>
   </si>
   <si>
     <t>AYWBA1</t>
   </si>
   <si>
-    <t>YYBA2A1</t>
-  </si>
-  <si>
-    <t>YYAA2A1</t>
-  </si>
-  <si>
-    <t>YAAA2A1</t>
-  </si>
-  <si>
-    <t>YYFWB</t>
-  </si>
-  <si>
     <t>YYNWF</t>
   </si>
   <si>
     <t>YYWFW</t>
-  </si>
-  <si>
-    <t>YYWNW</t>
-  </si>
-  <si>
-    <t>YYLWN</t>
-  </si>
-  <si>
-    <t>YYWLW</t>
-  </si>
-  <si>
-    <t>YYNWL</t>
-  </si>
-  <si>
-    <t>AYAA2A1</t>
-  </si>
-  <si>
-    <t>AAWA2A1</t>
-  </si>
-  <si>
-    <t>AAAWA1</t>
-  </si>
-  <si>
-    <t>YAAA2W</t>
-  </si>
-  <si>
-    <t>YAAA2N</t>
-  </si>
-  <si>
-    <t>AYWA2A1</t>
-  </si>
-  <si>
-    <t>AANWA1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -762,22 +822,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -785,22 +845,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -808,22 +868,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -831,22 +891,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -854,22 +914,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -877,22 +937,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -900,22 +960,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -923,22 +983,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -946,22 +1006,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -969,22 +1029,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -992,22 +1052,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1015,22 +1075,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1038,22 +1098,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1061,22 +1121,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1084,22 +1144,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1107,22 +1167,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1130,22 +1190,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1153,22 +1213,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1176,22 +1236,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1199,22 +1259,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1222,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1245,22 +1305,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1268,22 +1328,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1291,22 +1351,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1314,22 +1374,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1337,22 +1397,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1360,22 +1420,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1383,22 +1443,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1406,22 +1466,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1429,22 +1489,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1452,22 +1512,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1475,22 +1535,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1498,22 +1558,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1521,22 +1581,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1544,22 +1604,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1567,22 +1627,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1590,22 +1650,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1613,22 +1673,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1636,22 +1696,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1659,22 +1719,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1682,22 +1742,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1705,22 +1765,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,22 +1788,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1751,22 +1811,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1774,22 +1834,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1797,22 +1857,436 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F47" t="s">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G47" t="s">
-        <v>66</v>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1844,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1855,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1866,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1877,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1888,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1899,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1910,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1921,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1932,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1943,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1954,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1965,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1976,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1987,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1998,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2009,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2020,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2031,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2042,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2053,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2064,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2072,10 +2546,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2086,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2094,10 +2568,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2108,7 +2582,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2116,10 +2590,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2130,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2138,10 +2612,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2152,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2160,10 +2634,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2174,7 +2648,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2182,10 +2656,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2196,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2204,10 +2678,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2218,7 +2692,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2226,10 +2700,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2240,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2248,10 +2722,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2262,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2270,10 +2744,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2284,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2292,10 +2766,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2306,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2314,10 +2788,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2328,7 +2802,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2336,10 +2810,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2350,7 +2824,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2358,10 +2832,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2372,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2380,10 +2854,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2394,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2402,10 +2876,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2416,7 +2890,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2424,10 +2898,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2438,7 +2912,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2446,10 +2920,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2460,7 +2934,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2468,10 +2942,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2482,7 +2956,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2490,10 +2964,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2504,7 +2978,7 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2515,7 +2989,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2526,7 +3000,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2537,7 +3011,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2548,7 +3022,7 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2559,7 +3033,7 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2570,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2581,7 +3055,7 @@
         <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2592,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2603,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2614,7 +3088,7 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2625,7 +3099,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2636,7 +3110,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2647,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2658,7 +3132,7 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2669,7 +3143,7 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2680,7 +3154,7 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2691,7 +3165,7 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2702,7 +3176,7 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2713,7 +3187,7 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2724,7 +3198,7 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2735,7 +3209,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2746,7 +3220,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2757,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2768,7 +3242,7 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2779,9 +3253,405 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123">
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +3662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2803,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -2814,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -2825,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -2836,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -2847,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -2858,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -2869,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -2880,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -2891,7 +3761,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -2902,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -2913,7 +3783,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -2924,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -2935,7 +3805,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -2943,10 +3813,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -2957,7 +3827,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -2965,10 +3835,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -2979,7 +3849,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -2987,10 +3857,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -3001,7 +3871,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -3009,10 +3879,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -3023,7 +3893,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -3031,10 +3901,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -3045,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -3053,10 +3923,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -3067,7 +3937,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -3075,10 +3945,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -3089,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -3097,10 +3967,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -3111,7 +3981,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -3119,10 +3989,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -3133,7 +4003,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -3141,10 +4011,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -3155,7 +4025,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -3163,10 +4033,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -3177,7 +4047,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3185,10 +4055,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3199,7 +4069,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -3207,10 +4077,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -3221,7 +4091,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -3229,10 +4099,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -3243,7 +4113,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -3251,10 +4121,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -3265,7 +4135,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -3273,10 +4143,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -3287,7 +4157,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -3295,10 +4165,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -3309,7 +4179,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -3317,10 +4187,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -3331,7 +4201,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -3339,10 +4209,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -3353,7 +4223,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -3361,10 +4231,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -3375,7 +4245,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -3386,7 +4256,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -3397,7 +4267,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -3408,7 +4278,7 @@
         <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -3419,7 +4289,7 @@
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -3430,7 +4300,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -3441,7 +4311,7 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -3452,7 +4322,7 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -3463,7 +4333,7 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -3474,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -3485,7 +4355,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -3496,7 +4366,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -3507,7 +4377,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -3518,7 +4388,7 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -3529,7 +4399,7 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -3540,7 +4410,7 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -3551,7 +4421,7 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -3562,7 +4432,7 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -3573,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -3584,7 +4454,7 @@
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -3595,7 +4465,7 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -3606,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -3617,7 +4487,7 @@
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -3628,9 +4498,405 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
         <v>-1</v>
       </c>
     </row>
@@ -3641,7 +4907,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3649,822 +4915,802 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="160">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -145,6 +145,27 @@
     <t>YYBNBrd</t>
   </si>
   <si>
+    <t>YYBNBl</t>
+  </si>
+  <si>
+    <t>YYNBLb</t>
+  </si>
+  <si>
+    <t>YYNBLbd</t>
+  </si>
+  <si>
+    <t>YYBLBz</t>
+  </si>
+  <si>
+    <t>YYBLBzd</t>
+  </si>
+  <si>
+    <t>YYLBNb</t>
+  </si>
+  <si>
+    <t>YYLBNbd</t>
+  </si>
+  <si>
     <t>YYNWNw</t>
   </si>
   <si>
@@ -175,6 +196,27 @@
     <t>YYBNWbd</t>
   </si>
   <si>
+    <t>YYNWBl</t>
+  </si>
+  <si>
+    <t>YYWBLw</t>
+  </si>
+  <si>
+    <t>YYWBLwd</t>
+  </si>
+  <si>
+    <t>YYBLWb</t>
+  </si>
+  <si>
+    <t>YYBLWbd</t>
+  </si>
+  <si>
+    <t>YYLWBr</t>
+  </si>
+  <si>
+    <t>YYLWBrd</t>
+  </si>
+  <si>
     <t>AAAA2Nw</t>
   </si>
   <si>
@@ -241,6 +283,9 @@
     <t>O</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -313,6 +358,9 @@
     <t>rd</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>AAAA2A1</t>
   </si>
   <si>
@@ -406,6 +454,15 @@
     <t>YYBNB</t>
   </si>
   <si>
+    <t>YYNBL</t>
+  </si>
+  <si>
+    <t>YYBLB</t>
+  </si>
+  <si>
+    <t>YYLBN</t>
+  </si>
+  <si>
     <t>YYNWN</t>
   </si>
   <si>
@@ -419,6 +476,15 @@
   </si>
   <si>
     <t>YYBNW</t>
+  </si>
+  <si>
+    <t>YYWBL</t>
+  </si>
+  <si>
+    <t>YYBLW</t>
+  </si>
+  <si>
+    <t>YYLWB</t>
   </si>
   <si>
     <t>AANWB</t>
@@ -788,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -822,22 +888,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -845,22 +911,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -868,22 +934,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -891,22 +957,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -914,22 +980,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -937,22 +1003,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -960,22 +1026,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -983,22 +1049,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1006,22 +1072,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1029,22 +1095,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1052,22 +1118,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1075,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1098,22 +1164,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1121,22 +1187,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1144,22 +1210,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1167,22 +1233,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1190,22 +1256,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1213,22 +1279,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1236,22 +1302,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1259,22 +1325,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1282,22 +1348,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1305,22 +1371,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1328,22 +1394,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1351,22 +1417,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1374,22 +1440,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1397,22 +1463,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1420,22 +1486,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1443,22 +1509,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1466,22 +1532,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1489,22 +1555,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1512,22 +1578,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1535,22 +1601,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1558,22 +1624,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1581,22 +1647,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1604,22 +1670,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1627,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1650,22 +1716,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1673,22 +1739,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1696,22 +1762,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,22 +1785,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1742,22 +1808,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1765,22 +1831,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1788,22 +1854,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1811,22 +1877,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1834,22 +1900,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1857,22 +1923,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1880,22 +1946,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1903,22 +1969,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1926,22 +1992,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1949,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1972,22 +2038,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1995,22 +2061,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2018,22 +2084,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2041,22 +2107,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2064,22 +2130,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2087,22 +2153,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2110,22 +2176,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2133,22 +2199,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2156,22 +2222,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2179,22 +2245,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2202,22 +2268,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2225,22 +2291,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2248,22 +2314,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2271,22 +2337,344 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E65" t="s">
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2318,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2329,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2340,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2351,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2362,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2373,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2384,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2395,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2406,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2417,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2428,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2439,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2450,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2461,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2472,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2483,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2494,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2505,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2516,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2527,7 +2915,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2538,7 +2926,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2549,7 +2937,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2560,7 +2948,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2571,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2582,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2593,7 +2981,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2604,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2615,7 +3003,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2626,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2637,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2648,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2659,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2670,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2681,7 +3069,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2692,7 +3080,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2703,7 +3091,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2714,7 +3102,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2725,7 +3113,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2736,7 +3124,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2747,7 +3135,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2758,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2769,7 +3157,7 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2780,7 +3168,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2791,7 +3179,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2802,7 +3190,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2813,7 +3201,7 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2824,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2835,7 +3223,7 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2846,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2857,7 +3245,7 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2868,7 +3256,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2879,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2890,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2901,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2912,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2923,7 +3311,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2934,7 +3322,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2945,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2956,7 +3344,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2967,7 +3355,7 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2978,7 +3366,7 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2989,7 +3377,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3000,7 +3388,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3011,7 +3399,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3022,7 +3410,7 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3033,7 +3421,7 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3044,7 +3432,7 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3055,7 +3443,7 @@
         <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3066,7 +3454,7 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3077,7 +3465,7 @@
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3088,7 +3476,7 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3099,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3110,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3121,7 +3509,7 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3132,7 +3520,7 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3143,7 +3531,7 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3154,7 +3542,7 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3165,7 +3553,7 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3176,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3187,7 +3575,7 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3198,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3209,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3220,7 +3608,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3231,7 +3619,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3242,7 +3630,7 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3253,7 +3641,7 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3264,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3275,7 +3663,7 @@
         <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3286,7 +3674,7 @@
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3297,7 +3685,7 @@
         <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3308,7 +3696,7 @@
         <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3319,7 +3707,7 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3330,7 +3718,7 @@
         <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3341,7 +3729,7 @@
         <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3352,7 +3740,7 @@
         <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3363,7 +3751,7 @@
         <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3374,7 +3762,7 @@
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3385,7 +3773,7 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3396,7 +3784,7 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3407,7 +3795,7 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3418,7 +3806,7 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3429,7 +3817,7 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3440,7 +3828,7 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3451,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3462,7 +3850,7 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3473,7 +3861,7 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3484,7 +3872,7 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3495,7 +3883,7 @@
         <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3506,7 +3894,7 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3517,7 +3905,7 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3528,7 +3916,7 @@
         <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3539,7 +3927,7 @@
         <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3550,7 +3938,7 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3561,7 +3949,7 @@
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3572,7 +3960,7 @@
         <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3583,7 +3971,7 @@
         <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3594,7 +3982,7 @@
         <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3605,7 +3993,7 @@
         <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3616,7 +4004,7 @@
         <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3627,7 +4015,7 @@
         <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3638,7 +4026,7 @@
         <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3649,9 +4037,317 @@
         <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>71</v>
+      </c>
+      <c r="B137" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>73</v>
+      </c>
+      <c r="B140" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" t="s">
+        <v>121</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151">
         <v>1</v>
       </c>
     </row>
@@ -3662,7 +4358,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3673,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -3684,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -3695,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -3706,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -3717,7 +4413,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -3728,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -3739,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -3750,7 +4446,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -3761,7 +4457,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -3772,7 +4468,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -3783,7 +4479,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -3794,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -3805,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -3816,7 +4512,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -3827,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -3838,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -3849,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -3860,7 +4556,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -3871,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -3882,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -3893,7 +4589,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -3904,7 +4600,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -3915,7 +4611,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -3926,7 +4622,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -3937,7 +4633,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -3948,7 +4644,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -3959,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -3970,7 +4666,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -3981,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -3992,7 +4688,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -4003,7 +4699,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -4014,7 +4710,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -4025,7 +4721,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -4036,7 +4732,7 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -4047,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -4058,7 +4754,7 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -4069,7 +4765,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -4080,7 +4776,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -4091,7 +4787,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -4102,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -4113,7 +4809,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -4124,7 +4820,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -4135,7 +4831,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -4146,7 +4842,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -4157,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -4168,7 +4864,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4179,7 +4875,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -4190,7 +4886,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -4201,7 +4897,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -4212,7 +4908,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -4223,7 +4919,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -4234,7 +4930,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -4245,7 +4941,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -4256,7 +4952,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -4267,7 +4963,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -4278,7 +4974,7 @@
         <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -4289,7 +4985,7 @@
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -4300,7 +4996,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -4311,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -4322,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -4333,7 +5029,7 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -4344,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -4355,7 +5051,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -4366,7 +5062,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -4377,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -4388,7 +5084,7 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -4399,7 +5095,7 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -4410,7 +5106,7 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -4421,7 +5117,7 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -4432,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -4443,7 +5139,7 @@
         <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -4454,7 +5150,7 @@
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -4465,7 +5161,7 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -4476,7 +5172,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -4487,7 +5183,7 @@
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -4498,7 +5194,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -4509,7 +5205,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -4520,7 +5216,7 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -4531,7 +5227,7 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -4542,7 +5238,7 @@
         <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -4553,7 +5249,7 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -4564,7 +5260,7 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C82">
         <v>-1</v>
@@ -4575,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -4586,7 +5282,7 @@
         <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C84">
         <v>-1</v>
@@ -4597,7 +5293,7 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -4608,7 +5304,7 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C86">
         <v>-1</v>
@@ -4619,7 +5315,7 @@
         <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -4630,7 +5326,7 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C88">
         <v>-1</v>
@@ -4641,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C89">
         <v>-1</v>
@@ -4652,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C90">
         <v>-1</v>
@@ -4663,7 +5359,7 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C91">
         <v>-1</v>
@@ -4674,7 +5370,7 @@
         <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C92">
         <v>-1</v>
@@ -4685,7 +5381,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -4696,7 +5392,7 @@
         <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C94">
         <v>-1</v>
@@ -4707,7 +5403,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C95">
         <v>-1</v>
@@ -4718,7 +5414,7 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C96">
         <v>-1</v>
@@ -4729,7 +5425,7 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C97">
         <v>-1</v>
@@ -4740,7 +5436,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -4751,7 +5447,7 @@
         <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>-1</v>
@@ -4762,7 +5458,7 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C100">
         <v>-1</v>
@@ -4773,7 +5469,7 @@
         <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C101">
         <v>-1</v>
@@ -4784,7 +5480,7 @@
         <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C102">
         <v>-1</v>
@@ -4795,7 +5491,7 @@
         <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C103">
         <v>-1</v>
@@ -4806,7 +5502,7 @@
         <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C104">
         <v>-1</v>
@@ -4817,7 +5513,7 @@
         <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>-1</v>
@@ -4828,7 +5524,7 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C106">
         <v>-1</v>
@@ -4839,7 +5535,7 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C107">
         <v>-1</v>
@@ -4850,7 +5546,7 @@
         <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C108">
         <v>-1</v>
@@ -4861,7 +5557,7 @@
         <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C109">
         <v>-1</v>
@@ -4872,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C110">
         <v>-1</v>
@@ -4883,7 +5579,7 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C111">
         <v>-1</v>
@@ -4894,9 +5590,317 @@
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B134" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140">
         <v>-1</v>
       </c>
     </row>
@@ -4907,7 +5911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4915,802 +5919,922 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="126">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -52,37 +52,37 @@
     <t>SPSPSPSPSPsp</t>
   </si>
   <si>
-    <t>ANWFWb</t>
-  </si>
-  <si>
-    <t>ANWFWbd</t>
-  </si>
-  <si>
-    <t>AANWFw</t>
-  </si>
-  <si>
-    <t>AANWFwd</t>
-  </si>
-  <si>
-    <t>AAANWf</t>
-  </si>
-  <si>
-    <t>YAAA2Nw</t>
-  </si>
-  <si>
-    <t>YAAA2Nwd</t>
+    <t>ANBLBo</t>
+  </si>
+  <si>
+    <t>ANBLBod</t>
+  </si>
+  <si>
+    <t>AANBLb</t>
+  </si>
+  <si>
+    <t>AANBLbd</t>
+  </si>
+  <si>
+    <t>AAANBl</t>
+  </si>
+  <si>
+    <t>YAAA2Nb</t>
+  </si>
+  <si>
+    <t>YAAA2Nbd</t>
   </si>
   <si>
     <t>YYAA2A1z</t>
   </si>
   <si>
-    <t>YYBA2A1a</t>
-  </si>
-  <si>
-    <t>YYWBA1a</t>
-  </si>
-  <si>
-    <t>YYFWBa</t>
+    <t>YYOA2A1a</t>
+  </si>
+  <si>
+    <t>YYBOA1a</t>
+  </si>
+  <si>
+    <t>YYLBOa</t>
   </si>
   <si>
     <t>AAANBo</t>
@@ -106,9 +106,6 @@
     <t>YYAA2A1a</t>
   </si>
   <si>
-    <t>YYOA2A1a</t>
-  </si>
-  <si>
     <t>AYBOA1a</t>
   </si>
   <si>
@@ -139,12 +136,6 @@
     <t>YYBNBzd</t>
   </si>
   <si>
-    <t>YYBNBr</t>
-  </si>
-  <si>
-    <t>YYBNBrd</t>
-  </si>
-  <si>
     <t>YYBNBl</t>
   </si>
   <si>
@@ -166,94 +157,43 @@
     <t>YYLBNbd</t>
   </si>
   <si>
-    <t>YYNWNw</t>
-  </si>
-  <si>
-    <t>YYNWNwd</t>
-  </si>
-  <si>
-    <t>YYWNWz</t>
-  </si>
-  <si>
-    <t>YYWNWzd</t>
-  </si>
-  <si>
-    <t>YYNWBr</t>
-  </si>
-  <si>
-    <t>YYNWBrd</t>
-  </si>
-  <si>
-    <t>YYWBNw</t>
-  </si>
-  <si>
-    <t>YYWBNwd</t>
-  </si>
-  <si>
-    <t>YYBNWb</t>
-  </si>
-  <si>
-    <t>YYBNWbd</t>
-  </si>
-  <si>
-    <t>YYNWBl</t>
-  </si>
-  <si>
-    <t>YYWBLw</t>
-  </si>
-  <si>
-    <t>YYWBLwd</t>
-  </si>
-  <si>
-    <t>YYBLWb</t>
-  </si>
-  <si>
-    <t>YYBLWbd</t>
-  </si>
-  <si>
-    <t>YYLWBr</t>
-  </si>
-  <si>
-    <t>YYLWBrd</t>
-  </si>
-  <si>
-    <t>AAAA2Nw</t>
-  </si>
-  <si>
-    <t>AAAA2Nwd</t>
-  </si>
-  <si>
-    <t>AAANWb</t>
-  </si>
-  <si>
-    <t>AAANWbd</t>
-  </si>
-  <si>
-    <t>AANWBa</t>
-  </si>
-  <si>
-    <t>AYWBA1a</t>
-  </si>
-  <si>
-    <t>YYFWBz</t>
-  </si>
-  <si>
-    <t>YYFWBzd</t>
-  </si>
-  <si>
-    <t>YYBNWf</t>
-  </si>
-  <si>
-    <t>YYNWFw</t>
-  </si>
-  <si>
-    <t>YYNWFwd</t>
-  </si>
-  <si>
-    <t>YYWFWb</t>
-  </si>
-  <si>
-    <t>YYWFWbd</t>
+    <t>YYNBOr</t>
+  </si>
+  <si>
+    <t>YYNBOrd</t>
+  </si>
+  <si>
+    <t>YYBONb</t>
+  </si>
+  <si>
+    <t>YYBONbd</t>
+  </si>
+  <si>
+    <t>YYONBo</t>
+  </si>
+  <si>
+    <t>YYONBod</t>
+  </si>
+  <si>
+    <t>YYNBOl</t>
+  </si>
+  <si>
+    <t>YYBOLb</t>
+  </si>
+  <si>
+    <t>YYBOLbd</t>
+  </si>
+  <si>
+    <t>YYOLBo</t>
+  </si>
+  <si>
+    <t>YYOLBod</t>
+  </si>
+  <si>
+    <t>YYLBOr</t>
+  </si>
+  <si>
+    <t>YYLBOrd</t>
   </si>
   <si>
     <t>A</t>
@@ -271,15 +211,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -322,30 +256,24 @@
     <t>sp</t>
   </si>
   <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>bd</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>l</t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>od</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -358,9 +286,6 @@
     <t>rd</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>AAAA2A1</t>
   </si>
   <si>
@@ -394,13 +319,13 @@
     <t>SPSPSPSPSP</t>
   </si>
   <si>
-    <t>ANWFW</t>
-  </si>
-  <si>
-    <t>AANWF</t>
-  </si>
-  <si>
-    <t>AAANW</t>
+    <t>ANBLB</t>
+  </si>
+  <si>
+    <t>AANBL</t>
+  </si>
+  <si>
+    <t>AAANB</t>
   </si>
   <si>
     <t>YAAA2N</t>
@@ -409,16 +334,13 @@
     <t>YYAA2A1</t>
   </si>
   <si>
-    <t>YYBA2A1</t>
-  </si>
-  <si>
-    <t>YYWBA1</t>
-  </si>
-  <si>
-    <t>YYFWB</t>
-  </si>
-  <si>
-    <t>AAANB</t>
+    <t>YYOA2A1</t>
+  </si>
+  <si>
+    <t>YYBOA1</t>
+  </si>
+  <si>
+    <t>YYLBO</t>
   </si>
   <si>
     <t>AAAA2N</t>
@@ -427,9 +349,6 @@
     <t>YAAA2A1</t>
   </si>
   <si>
-    <t>YYOA2A1</t>
-  </si>
-  <si>
     <t>AYBOA1</t>
   </si>
   <si>
@@ -463,40 +382,19 @@
     <t>YYLBN</t>
   </si>
   <si>
-    <t>YYNWN</t>
-  </si>
-  <si>
-    <t>YYWNW</t>
-  </si>
-  <si>
-    <t>YYNWB</t>
-  </si>
-  <si>
-    <t>YYWBN</t>
-  </si>
-  <si>
-    <t>YYBNW</t>
-  </si>
-  <si>
-    <t>YYWBL</t>
-  </si>
-  <si>
-    <t>YYBLW</t>
-  </si>
-  <si>
-    <t>YYLWB</t>
-  </si>
-  <si>
-    <t>AANWB</t>
-  </si>
-  <si>
-    <t>AYWBA1</t>
-  </si>
-  <si>
-    <t>YYNWF</t>
-  </si>
-  <si>
-    <t>YYWFW</t>
+    <t>YYNBO</t>
+  </si>
+  <si>
+    <t>YYBON</t>
+  </si>
+  <si>
+    <t>YYONB</t>
+  </si>
+  <si>
+    <t>YYBOL</t>
+  </si>
+  <si>
+    <t>YYOLB</t>
   </si>
 </sst>
 </file>
@@ -854,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -888,22 +786,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -911,22 +809,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -934,22 +832,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -957,22 +855,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,22 +878,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1003,22 +901,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1026,22 +924,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1049,22 +947,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1072,22 +970,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1095,22 +993,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1118,22 +1016,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1141,22 +1039,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1164,22 +1062,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1187,22 +1085,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1210,22 +1108,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1233,22 +1131,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1256,22 +1154,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1279,22 +1177,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1302,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1325,22 +1223,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1348,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1371,22 +1269,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1394,22 +1292,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1417,22 +1315,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1440,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1463,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1486,22 +1384,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1509,22 +1407,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1532,22 +1430,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1555,22 +1453,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1578,22 +1476,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1601,22 +1499,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1624,22 +1522,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1647,22 +1545,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1670,22 +1568,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1693,22 +1591,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1716,22 +1614,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1739,22 +1637,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1762,22 +1660,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
         <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1785,22 +1683,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1808,22 +1706,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1831,22 +1729,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1854,22 +1752,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1877,22 +1775,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1900,22 +1798,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1923,22 +1821,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1946,22 +1844,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
         <v>88</v>
-      </c>
-      <c r="E48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1969,22 +1867,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1992,22 +1890,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
         <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2015,22 +1913,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2038,22 +1936,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2061,22 +1959,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" t="s">
         <v>83</v>
-      </c>
-      <c r="F53" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2084,22 +1982,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2107,22 +2005,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
         <v>82</v>
-      </c>
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2130,22 +2028,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2153,22 +2051,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2176,22 +2074,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2199,482 +2097,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" t="s">
         <v>88</v>
-      </c>
-      <c r="G61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" t="s">
-        <v>86</v>
-      </c>
-      <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2122,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2695,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2706,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2717,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2728,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2739,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2750,7 +2188,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2761,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2772,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2783,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2794,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2805,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2816,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2827,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2838,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2849,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2860,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2871,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2882,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2893,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2904,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2915,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2926,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2937,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2948,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2959,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2970,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2981,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2992,7 +2430,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3003,7 +2441,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3014,7 +2452,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3025,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3036,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3047,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3058,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3069,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3080,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3091,7 +2529,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3102,7 +2540,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3113,7 +2551,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3124,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3135,7 +2573,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3146,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3157,7 +2595,7 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3168,7 +2606,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3179,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3190,7 +2628,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3201,7 +2639,7 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3212,7 +2650,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3223,7 +2661,7 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3234,7 +2672,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3245,7 +2683,7 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3256,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3267,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3278,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3289,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3300,7 +2738,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3311,7 +2749,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3322,7 +2760,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3333,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3344,7 +2782,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3352,10 +2790,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3366,7 +2804,7 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3377,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3388,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3399,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3410,7 +2848,7 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3421,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3432,7 +2870,7 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3443,7 +2881,7 @@
         <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3454,7 +2892,7 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3465,7 +2903,7 @@
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3476,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3487,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3498,7 +2936,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3509,7 +2947,7 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3520,7 +2958,7 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3531,7 +2969,7 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3542,7 +2980,7 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3553,7 +2991,7 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3564,7 +3002,7 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3575,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3586,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3597,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3608,7 +3046,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3619,7 +3057,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3630,7 +3068,7 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3641,7 +3079,7 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3652,7 +3090,7 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3663,7 +3101,7 @@
         <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3674,7 +3112,7 @@
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3685,7 +3123,7 @@
         <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3696,7 +3134,7 @@
         <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3707,7 +3145,7 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3718,7 +3156,7 @@
         <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3729,7 +3167,7 @@
         <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3740,7 +3178,7 @@
         <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3751,7 +3189,7 @@
         <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3762,7 +3200,7 @@
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3773,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3784,7 +3222,7 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3795,7 +3233,7 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3806,7 +3244,7 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3817,7 +3255,7 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3828,7 +3266,7 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3839,7 +3277,7 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3850,7 +3288,7 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3861,7 +3299,7 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3872,7 +3310,7 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3883,7 +3321,7 @@
         <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3894,7 +3332,7 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3905,449 +3343,9 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" t="s">
-        <v>121</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>61</v>
-      </c>
-      <c r="B117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" t="s">
-        <v>154</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>64</v>
-      </c>
-      <c r="B123" t="s">
-        <v>155</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" t="s">
-        <v>121</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>66</v>
-      </c>
-      <c r="B127" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>67</v>
-      </c>
-      <c r="B128" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>67</v>
-      </c>
-      <c r="B129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B130" t="s">
-        <v>127</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>68</v>
-      </c>
-      <c r="B131" t="s">
-        <v>121</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" t="s">
-        <v>121</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>70</v>
-      </c>
-      <c r="B134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>70</v>
-      </c>
-      <c r="B135" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>71</v>
-      </c>
-      <c r="B136" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>71</v>
-      </c>
-      <c r="B137" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>72</v>
-      </c>
-      <c r="B139" t="s">
-        <v>132</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>73</v>
-      </c>
-      <c r="B140" t="s">
-        <v>121</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>73</v>
-      </c>
-      <c r="B141" t="s">
-        <v>132</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" t="s">
-        <v>121</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" t="s">
-        <v>158</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" t="s">
-        <v>158</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B148" t="s">
-        <v>121</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B149" t="s">
-        <v>159</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>78</v>
-      </c>
-      <c r="B150" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151">
         <v>1</v>
       </c>
     </row>
@@ -4358,7 +3356,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4369,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -4380,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4391,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -4402,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4413,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4424,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4435,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -4446,7 +3444,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4457,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -4468,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -4479,7 +3477,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -4490,7 +3488,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -4501,7 +3499,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -4512,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -4523,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -4534,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -4545,7 +3543,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -4556,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -4567,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -4578,7 +3576,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -4589,7 +3587,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -4600,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -4611,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -4622,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -4633,7 +3631,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -4644,7 +3642,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -4655,7 +3653,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -4666,7 +3664,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -4677,7 +3675,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -4688,7 +3686,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -4699,7 +3697,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -4710,7 +3708,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -4721,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -4732,7 +3730,7 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -4743,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -4754,7 +3752,7 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -4765,7 +3763,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -4776,7 +3774,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -4787,7 +3785,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -4798,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -4809,7 +3807,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -4820,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -4831,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -4842,7 +3840,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -4853,7 +3851,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -4864,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4875,7 +3873,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -4886,7 +3884,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -4897,7 +3895,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -4908,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -4919,7 +3917,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -4927,10 +3925,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -4941,7 +3939,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -4952,7 +3950,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -4963,7 +3961,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -4974,7 +3972,7 @@
         <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -4985,7 +3983,7 @@
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -4996,7 +3994,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -5007,7 +4005,7 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -5018,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -5029,7 +4027,7 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -5040,7 +4038,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -5051,7 +4049,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -5062,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -5073,7 +4071,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -5084,7 +4082,7 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -5095,7 +4093,7 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -5106,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -5117,7 +4115,7 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -5128,7 +4126,7 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -5139,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -5150,7 +4148,7 @@
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -5161,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -5172,7 +4170,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -5183,7 +4181,7 @@
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -5194,7 +4192,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -5205,7 +4203,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -5216,7 +4214,7 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -5227,7 +4225,7 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -5238,7 +4236,7 @@
         <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -5249,7 +4247,7 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -5260,7 +4258,7 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C82">
         <v>-1</v>
@@ -5271,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -5282,7 +4280,7 @@
         <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C84">
         <v>-1</v>
@@ -5293,7 +4291,7 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -5304,7 +4302,7 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>-1</v>
@@ -5315,7 +4313,7 @@
         <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -5326,7 +4324,7 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C88">
         <v>-1</v>
@@ -5337,7 +4335,7 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>-1</v>
@@ -5348,7 +4346,7 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C90">
         <v>-1</v>
@@ -5359,7 +4357,7 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>-1</v>
@@ -5370,7 +4368,7 @@
         <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C92">
         <v>-1</v>
@@ -5381,7 +4379,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -5392,7 +4390,7 @@
         <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C94">
         <v>-1</v>
@@ -5403,7 +4401,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C95">
         <v>-1</v>
@@ -5414,7 +4412,7 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C96">
         <v>-1</v>
@@ -5425,7 +4423,7 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>-1</v>
@@ -5436,7 +4434,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -5447,7 +4445,7 @@
         <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <v>-1</v>
@@ -5458,449 +4456,9 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B109" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>64</v>
-      </c>
-      <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>67</v>
-      </c>
-      <c r="B117" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>67</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>68</v>
-      </c>
-      <c r="B119" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>68</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>69</v>
-      </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>70</v>
-      </c>
-      <c r="B123" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>70</v>
-      </c>
-      <c r="B124" t="s">
-        <v>115</v>
-      </c>
-      <c r="C124">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>71</v>
-      </c>
-      <c r="B125" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B126" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" t="s">
-        <v>120</v>
-      </c>
-      <c r="C127">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>72</v>
-      </c>
-      <c r="B128" t="s">
-        <v>151</v>
-      </c>
-      <c r="C128">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>73</v>
-      </c>
-      <c r="B129" t="s">
-        <v>120</v>
-      </c>
-      <c r="C129">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" t="s">
-        <v>151</v>
-      </c>
-      <c r="C130">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>74</v>
-      </c>
-      <c r="B131" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>74</v>
-      </c>
-      <c r="B132" t="s">
-        <v>158</v>
-      </c>
-      <c r="C132">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>75</v>
-      </c>
-      <c r="B133" t="s">
-        <v>121</v>
-      </c>
-      <c r="C133">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>75</v>
-      </c>
-      <c r="B134" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>76</v>
-      </c>
-      <c r="B136" t="s">
-        <v>159</v>
-      </c>
-      <c r="C136">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" t="s">
-        <v>121</v>
-      </c>
-      <c r="C137">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B138" t="s">
-        <v>132</v>
-      </c>
-      <c r="C138">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139" t="s">
-        <v>121</v>
-      </c>
-      <c r="C139">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" t="s">
-        <v>132</v>
-      </c>
-      <c r="C140">
         <v>-1</v>
       </c>
     </row>
@@ -5911,7 +4469,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5919,922 +4477,742 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="165">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -37,6 +37,9 @@
     <t>GGGAg2OFa2</t>
   </si>
   <si>
+    <t>GGGAg2LFa2</t>
+  </si>
+  <si>
     <t>GGGC1Na2</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>GGGC1OFa2</t>
   </si>
   <si>
+    <t>GGGC1LFa2</t>
+  </si>
+  <si>
     <t>SPSPSPSPSPsp</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>OF</t>
   </si>
   <si>
+    <t>LF</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -379,6 +388,9 @@
     <t>GGGAg2OF</t>
   </si>
   <si>
+    <t>GGGAg2LF</t>
+  </si>
+  <si>
     <t>GGGC1N</t>
   </si>
   <si>
@@ -389,6 +401,9 @@
   </si>
   <si>
     <t>GGGC1OF</t>
+  </si>
+  <si>
+    <t>GGGC1LF</t>
   </si>
   <si>
     <t>SPSPSPSPSP</t>
@@ -854,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -888,22 +903,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -911,22 +926,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -934,22 +949,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -957,22 +972,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,22 +995,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1003,22 +1018,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1026,22 +1041,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1049,22 +1064,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1072,22 +1087,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1095,22 +1110,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1118,22 +1133,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1141,22 +1156,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1164,22 +1179,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1187,22 +1202,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1210,22 +1225,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1233,22 +1248,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1256,22 +1271,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1279,19 +1294,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
         <v>106</v>
@@ -1302,22 +1317,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1325,22 +1340,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1348,22 +1363,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1371,22 +1386,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1394,22 +1409,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1417,22 +1432,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1440,22 +1455,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1463,22 +1478,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1486,22 +1501,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1509,22 +1524,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1532,22 +1547,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1555,22 +1570,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1578,22 +1593,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1601,22 +1616,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1624,19 +1639,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>101</v>
@@ -1647,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1670,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
         <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1693,19 +1708,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
         <v>101</v>
@@ -1716,22 +1731,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1739,22 +1754,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
         <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1762,22 +1777,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
         <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1785,22 +1800,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
-        <v>83</v>
-      </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1808,22 +1823,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
         <v>85</v>
       </c>
-      <c r="E42" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1831,22 +1846,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1854,22 +1869,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1877,22 +1892,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1900,22 +1915,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1923,22 +1938,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1946,22 +1961,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1969,22 +1984,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1992,22 +2007,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2015,22 +2030,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2038,19 +2053,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
         <v>106</v>
@@ -2061,22 +2076,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2084,22 +2099,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2107,22 +2122,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2130,22 +2145,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2153,22 +2168,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2176,22 +2191,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" t="s">
         <v>85</v>
       </c>
-      <c r="E58" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" t="s">
-        <v>84</v>
-      </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2199,22 +2214,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
-      </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2222,22 +2237,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2245,22 +2260,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
         <v>85</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2268,22 +2283,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2291,22 +2306,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2314,22 +2329,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2337,22 +2352,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2360,22 +2375,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2383,22 +2398,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2406,22 +2421,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2429,22 +2444,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2452,22 +2467,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2475,22 +2490,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2498,22 +2513,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
         <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2521,22 +2536,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
         <v>86</v>
       </c>
-      <c r="E73" t="s">
-        <v>84</v>
-      </c>
       <c r="F73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2544,22 +2559,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2567,22 +2582,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2590,22 +2605,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2613,22 +2628,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s">
         <v>86</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2636,22 +2651,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
         <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2659,22 +2674,68 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s">
         <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2695,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2706,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2717,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2728,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2739,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2750,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2761,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2769,10 +2830,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2780,10 +2841,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2791,10 +2852,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2802,10 +2863,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2813,10 +2874,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2824,10 +2885,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2835,10 +2896,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2846,10 +2907,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2857,10 +2918,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2868,10 +2929,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2879,10 +2940,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2890,10 +2951,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2901,10 +2962,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2912,10 +2973,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2923,10 +2984,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2934,10 +2995,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2945,10 +3006,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2956,10 +3017,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2967,10 +3028,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2978,10 +3039,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2989,10 +3050,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3000,10 +3061,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3011,10 +3072,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3022,10 +3083,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3033,10 +3094,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3044,10 +3105,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3055,10 +3116,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3066,10 +3127,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3077,10 +3138,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3088,10 +3149,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3099,10 +3160,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3110,10 +3171,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3121,10 +3182,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3132,10 +3193,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3143,10 +3204,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3154,10 +3215,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3165,10 +3226,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3176,10 +3237,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3187,10 +3248,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3198,10 +3259,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3209,10 +3270,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3220,10 +3281,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3231,10 +3292,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3242,10 +3303,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3253,10 +3314,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3264,10 +3325,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3275,10 +3336,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3286,10 +3347,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3297,10 +3358,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3308,10 +3369,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3319,10 +3380,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3330,10 +3391,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3341,10 +3402,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3352,10 +3413,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3363,10 +3424,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3374,10 +3435,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3385,10 +3446,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3396,10 +3457,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3407,10 +3468,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3418,10 +3479,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3429,10 +3490,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3440,10 +3501,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3451,10 +3512,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3462,10 +3523,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3473,10 +3534,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3484,10 +3545,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3495,10 +3556,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3506,10 +3567,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3517,10 +3578,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3528,10 +3589,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3539,10 +3600,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3550,10 +3611,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3561,10 +3622,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3572,10 +3633,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3583,10 +3644,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3594,10 +3655,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3605,10 +3666,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3616,10 +3677,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3627,10 +3688,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3638,10 +3699,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3649,10 +3710,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3660,10 +3721,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3671,10 +3732,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3682,10 +3743,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3693,10 +3754,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3704,10 +3765,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3715,10 +3776,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3726,10 +3787,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3737,10 +3798,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3748,10 +3809,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3759,10 +3820,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3770,10 +3831,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3781,10 +3842,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3792,10 +3853,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3803,10 +3864,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3814,10 +3875,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3825,10 +3886,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3836,10 +3897,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3847,10 +3908,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3858,10 +3919,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3869,10 +3930,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3880,10 +3941,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3891,10 +3952,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3902,10 +3963,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3913,10 +3974,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3924,10 +3985,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3935,10 +3996,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3946,10 +4007,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3957,10 +4018,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3968,10 +4029,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3979,10 +4040,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3990,10 +4051,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4001,10 +4062,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -4012,10 +4073,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4023,10 +4084,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4034,10 +4095,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4045,10 +4106,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4056,10 +4117,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4067,10 +4128,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4078,10 +4139,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4089,10 +4150,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4100,10 +4161,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -4111,10 +4172,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4122,10 +4183,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4133,10 +4194,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4144,10 +4205,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4155,10 +4216,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4166,10 +4227,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4177,10 +4238,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4188,10 +4249,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4199,10 +4260,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4210,10 +4271,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4221,10 +4282,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4232,10 +4293,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B141" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4243,10 +4304,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4254,10 +4315,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4265,10 +4326,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4276,10 +4337,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4287,10 +4348,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4298,10 +4359,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4309,10 +4370,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4320,10 +4381,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4331,23 +4392,12 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151">
         <v>1</v>
       </c>
     </row>
@@ -4358,7 +4408,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4369,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -4380,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4388,10 +4438,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -4399,10 +4449,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4410,10 +4460,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4421,10 +4471,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4432,10 +4482,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -4443,10 +4493,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4454,10 +4504,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -4465,10 +4515,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -4476,10 +4526,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -4487,10 +4537,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -4498,10 +4548,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -4509,10 +4559,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -4520,10 +4570,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -4531,10 +4581,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -4542,10 +4592,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -4553,10 +4603,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -4564,10 +4614,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -4575,10 +4625,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -4586,10 +4636,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -4597,10 +4647,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -4608,10 +4658,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -4619,10 +4669,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -4630,10 +4680,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -4641,10 +4691,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -4652,10 +4702,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -4663,10 +4713,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -4674,10 +4724,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -4685,10 +4735,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -4696,10 +4746,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -4707,10 +4757,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -4718,10 +4768,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -4729,10 +4779,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -4740,10 +4790,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -4751,10 +4801,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -4762,10 +4812,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -4773,10 +4823,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -4784,10 +4834,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -4795,10 +4845,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -4806,10 +4856,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -4817,10 +4867,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -4828,10 +4878,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -4839,10 +4889,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -4850,10 +4900,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -4861,10 +4911,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4872,10 +4922,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -4883,10 +4933,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -4894,10 +4944,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -4905,10 +4955,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -4916,10 +4966,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -4927,10 +4977,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -4938,10 +4988,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -4949,10 +4999,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -4960,10 +5010,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -4971,10 +5021,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -4982,10 +5032,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -4993,10 +5043,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -5004,10 +5054,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -5015,10 +5065,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -5026,10 +5076,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -5037,10 +5087,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -5048,10 +5098,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -5059,10 +5109,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -5070,10 +5120,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -5081,10 +5131,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -5092,10 +5142,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -5103,10 +5153,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -5114,10 +5164,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -5125,10 +5175,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -5136,10 +5186,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -5147,10 +5197,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -5158,10 +5208,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -5169,10 +5219,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -5180,10 +5230,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -5191,10 +5241,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -5202,10 +5252,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -5213,10 +5263,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -5224,10 +5274,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -5235,10 +5285,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -5246,10 +5296,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -5257,10 +5307,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C82">
         <v>-1</v>
@@ -5268,10 +5318,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -5279,10 +5329,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C84">
         <v>-1</v>
@@ -5290,10 +5340,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -5301,10 +5351,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C86">
         <v>-1</v>
@@ -5312,10 +5362,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -5323,10 +5373,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C88">
         <v>-1</v>
@@ -5334,10 +5384,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C89">
         <v>-1</v>
@@ -5345,10 +5395,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C90">
         <v>-1</v>
@@ -5356,10 +5406,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C91">
         <v>-1</v>
@@ -5367,10 +5417,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C92">
         <v>-1</v>
@@ -5378,10 +5428,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -5389,10 +5439,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C94">
         <v>-1</v>
@@ -5400,10 +5450,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C95">
         <v>-1</v>
@@ -5411,10 +5461,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C96">
         <v>-1</v>
@@ -5422,10 +5472,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C97">
         <v>-1</v>
@@ -5433,10 +5483,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -5444,10 +5494,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C99">
         <v>-1</v>
@@ -5455,10 +5505,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C100">
         <v>-1</v>
@@ -5466,10 +5516,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C101">
         <v>-1</v>
@@ -5477,10 +5527,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C102">
         <v>-1</v>
@@ -5488,10 +5538,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C103">
         <v>-1</v>
@@ -5499,10 +5549,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C104">
         <v>-1</v>
@@ -5510,10 +5560,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C105">
         <v>-1</v>
@@ -5521,10 +5571,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C106">
         <v>-1</v>
@@ -5532,10 +5582,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C107">
         <v>-1</v>
@@ -5543,10 +5593,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C108">
         <v>-1</v>
@@ -5554,10 +5604,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C109">
         <v>-1</v>
@@ -5565,10 +5615,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C110">
         <v>-1</v>
@@ -5576,10 +5626,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C111">
         <v>-1</v>
@@ -5587,10 +5637,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>-1</v>
@@ -5598,10 +5648,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C113">
         <v>-1</v>
@@ -5609,10 +5659,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C114">
         <v>-1</v>
@@ -5620,10 +5670,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C115">
         <v>-1</v>
@@ -5631,10 +5681,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C116">
         <v>-1</v>
@@ -5642,10 +5692,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>-1</v>
@@ -5653,10 +5703,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C118">
         <v>-1</v>
@@ -5664,10 +5714,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C119">
         <v>-1</v>
@@ -5675,10 +5725,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C120">
         <v>-1</v>
@@ -5686,10 +5736,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C121">
         <v>-1</v>
@@ -5697,10 +5747,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C122">
         <v>-1</v>
@@ -5708,10 +5758,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C123">
         <v>-1</v>
@@ -5719,10 +5769,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C124">
         <v>-1</v>
@@ -5730,10 +5780,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>-1</v>
@@ -5741,10 +5791,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>-1</v>
@@ -5752,10 +5802,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C127">
         <v>-1</v>
@@ -5763,10 +5813,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C128">
         <v>-1</v>
@@ -5774,10 +5824,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C129">
         <v>-1</v>
@@ -5785,10 +5835,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C130">
         <v>-1</v>
@@ -5796,10 +5846,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C131">
         <v>-1</v>
@@ -5807,10 +5857,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>-1</v>
@@ -5818,10 +5868,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>-1</v>
@@ -5829,10 +5879,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C134">
         <v>-1</v>
@@ -5840,10 +5890,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C135">
         <v>-1</v>
@@ -5851,10 +5901,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C136">
         <v>-1</v>
@@ -5862,10 +5912,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>-1</v>
@@ -5873,10 +5923,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C138">
         <v>-1</v>
@@ -5884,23 +5934,12 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C139">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" t="s">
-        <v>132</v>
-      </c>
-      <c r="C140">
         <v>-1</v>
       </c>
     </row>
@@ -5911,7 +5950,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5919,479 +5958,479 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>83</v>
@@ -6399,262 +6438,262 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
         <v>85</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6662,179 +6701,219 @@
         <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
         <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/Rotation.xlsx
+++ b/ExcelInputs/Rotation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="187">
   <si>
     <t>AAAA2A1a</t>
   </si>
@@ -28,6 +28,9 @@
     <t>GGGGSg1a2</t>
   </si>
   <si>
+    <t>GGGGUa2</t>
+  </si>
+  <si>
     <t>GGGAg2Na2</t>
   </si>
   <si>
@@ -241,6 +244,36 @@
     <t>AYWBA1a</t>
   </si>
   <si>
+    <t>UUUNWb</t>
+  </si>
+  <si>
+    <t>UUUNWbd</t>
+  </si>
+  <si>
+    <t>UUUUNw</t>
+  </si>
+  <si>
+    <t>UUUUNwd</t>
+  </si>
+  <si>
+    <t>UUUUUz</t>
+  </si>
+  <si>
+    <t>YUUUUu</t>
+  </si>
+  <si>
+    <t>YYUUUu</t>
+  </si>
+  <si>
+    <t>YYBUUu</t>
+  </si>
+  <si>
+    <t>UYWBUu</t>
+  </si>
+  <si>
+    <t>UUNWBu</t>
+  </si>
+  <si>
     <t>YYFWBz</t>
   </si>
   <si>
@@ -274,6 +307,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -370,6 +406,9 @@
     <t>l</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>AAAA2A1</t>
   </si>
   <si>
@@ -379,6 +418,9 @@
     <t>GGGGSg1</t>
   </si>
   <si>
+    <t>GGGGU</t>
+  </si>
+  <si>
     <t>GGGAg2N</t>
   </si>
   <si>
@@ -506,6 +548,30 @@
   </si>
   <si>
     <t>AYWBA1</t>
+  </si>
+  <si>
+    <t>UUUNW</t>
+  </si>
+  <si>
+    <t>UUUUN</t>
+  </si>
+  <si>
+    <t>UUUUU</t>
+  </si>
+  <si>
+    <t>YUUUU</t>
+  </si>
+  <si>
+    <t>YYUUU</t>
+  </si>
+  <si>
+    <t>YYBUU</t>
+  </si>
+  <si>
+    <t>UYWBU</t>
+  </si>
+  <si>
+    <t>UUNWB</t>
   </si>
   <si>
     <t>YYNWF</t>
@@ -869,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -903,22 +969,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -926,22 +992,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -949,22 +1015,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -972,22 +1038,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -995,22 +1061,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1018,22 +1084,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1041,22 +1107,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1064,22 +1130,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1087,22 +1153,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1110,22 +1176,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1133,22 +1199,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1156,22 +1222,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1179,22 +1245,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1202,22 +1268,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1225,22 +1291,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1248,22 +1314,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1271,22 +1337,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1294,22 +1360,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1317,22 +1383,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1340,22 +1406,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1363,22 +1429,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1386,22 +1452,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1409,22 +1475,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1432,22 +1498,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1455,22 +1521,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1478,22 +1544,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1501,22 +1567,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1524,22 +1590,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1547,22 +1613,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1570,22 +1636,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1593,22 +1659,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1616,22 +1682,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1639,22 +1705,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1662,22 +1728,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1685,22 +1751,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1708,22 +1774,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1731,22 +1797,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1754,22 +1820,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1777,22 +1843,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1800,22 +1866,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1823,22 +1889,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1846,22 +1912,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1869,22 +1935,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1892,22 +1958,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1915,22 +1981,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1938,22 +2004,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1961,22 +2027,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1984,22 +2050,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2007,22 +2073,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2030,22 +2096,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2053,22 +2119,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2076,22 +2142,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2099,22 +2165,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2122,22 +2188,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2145,22 +2211,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2168,22 +2234,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2191,22 +2257,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2214,22 +2280,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2237,22 +2303,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2260,22 +2326,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2283,22 +2349,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2306,22 +2372,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2329,22 +2395,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2352,22 +2418,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2375,22 +2441,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2398,22 +2464,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2421,22 +2487,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2444,22 +2510,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2467,22 +2533,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2490,22 +2556,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2513,22 +2579,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2536,22 +2602,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2559,22 +2625,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2582,22 +2648,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2605,22 +2671,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2628,22 +2694,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2651,22 +2717,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2674,22 +2740,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2697,22 +2763,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2720,22 +2786,275 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E81" t="s">
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +3064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2756,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2767,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2778,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2789,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2800,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2811,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2822,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2833,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2844,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2855,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2866,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2877,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2888,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2899,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2910,7 +3229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2918,10 +3237,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2932,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2940,10 +3259,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2954,7 +3273,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2962,10 +3281,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2976,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2984,10 +3303,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2998,7 +3317,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3006,10 +3325,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3020,7 +3339,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3028,10 +3347,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3042,7 +3361,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3050,10 +3369,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3064,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3072,10 +3391,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3086,7 +3405,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3094,10 +3413,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3108,7 +3427,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3116,10 +3435,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3130,7 +3449,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3138,10 +3457,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3152,7 +3471,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3160,10 +3479,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3174,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3182,10 +3501,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3204,10 +3523,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3218,7 +3537,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3226,10 +3545,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3240,7 +3559,7 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3248,10 +3567,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3262,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3270,10 +3589,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3284,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3292,10 +3611,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3306,7 +3625,7 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3314,10 +3633,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3328,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3336,10 +3655,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3350,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3358,10 +3677,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3372,7 +3691,7 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3380,10 +3699,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3394,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3402,10 +3721,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3416,7 +3735,7 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3424,10 +3743,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3438,7 +3757,7 @@
         <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3446,10 +3765,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3460,7 +3779,7 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3468,10 +3787,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3482,7 +3801,7 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3490,10 +3809,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3504,7 +3823,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3512,10 +3831,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3526,7 +3845,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3534,10 +3853,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3548,7 +3867,7 @@
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3556,10 +3875,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3570,7 +3889,7 @@
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3578,10 +3897,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3592,7 +3911,7 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3600,10 +3919,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3614,7 +3933,7 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3622,10 +3941,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3636,7 +3955,7 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3644,10 +3963,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3658,7 +3977,7 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3666,10 +3985,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3680,7 +3999,7 @@
         <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3688,10 +4007,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3702,7 +4021,7 @@
         <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3710,10 +4029,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3724,7 +4043,7 @@
         <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3732,10 +4051,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3746,7 +4065,7 @@
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3754,10 +4073,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3768,7 +4087,7 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3776,10 +4095,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3790,7 +4109,7 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3798,10 +4117,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3812,7 +4131,7 @@
         <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3820,10 +4139,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3834,7 +4153,7 @@
         <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3842,10 +4161,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3856,7 +4175,7 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3864,10 +4183,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3878,7 +4197,7 @@
         <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3886,10 +4205,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3900,7 +4219,7 @@
         <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3908,10 +4227,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3922,7 +4241,7 @@
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3930,10 +4249,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3944,7 +4263,7 @@
         <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3952,10 +4271,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3966,7 +4285,7 @@
         <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3974,10 +4293,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3988,7 +4307,7 @@
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3996,10 +4315,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4010,7 +4329,7 @@
         <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4018,10 +4337,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -4032,7 +4351,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -4040,10 +4359,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -4054,7 +4373,7 @@
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4062,10 +4381,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -4076,7 +4395,7 @@
         <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4084,10 +4403,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4098,7 +4417,7 @@
         <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4106,10 +4425,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4120,7 +4439,7 @@
         <v>68</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4128,10 +4447,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4142,7 +4461,7 @@
         <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4150,10 +4469,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4164,7 +4483,7 @@
         <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -4172,10 +4491,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4186,7 +4505,7 @@
         <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4194,10 +4513,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4208,7 +4527,7 @@
         <v>72</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4216,10 +4535,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4230,7 +4549,7 @@
         <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4238,10 +4557,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4252,7 +4571,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4260,10 +4579,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4274,7 +4593,7 @@
         <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4282,10 +4601,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4296,7 +4615,7 @@
         <v>76</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4304,10 +4623,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4315,10 +4634,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4326,10 +4645,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4337,10 +4656,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4348,10 +4667,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4359,10 +4678,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4370,10 +4689,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4381,10 +4700,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4392,12 +4711,221 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>82</v>
+      </c>
+      <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>83</v>
+      </c>
+      <c r="B152" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>85</v>
+      </c>
+      <c r="B156" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>86</v>
+      </c>
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>87</v>
+      </c>
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165" t="s">
+        <v>185</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" t="s">
+        <v>186</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169">
         <v>1</v>
       </c>
     </row>
@@ -4408,7 +4936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4419,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -4430,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4438,10 +4966,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -4449,10 +4977,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4460,10 +4988,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4471,10 +4999,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4482,10 +5010,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -4493,10 +5021,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4504,10 +5032,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -4515,10 +5043,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -4526,10 +5054,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -4537,10 +5065,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -4548,10 +5076,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -4559,10 +5087,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -4570,10 +5098,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -4581,10 +5109,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -4592,10 +5120,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -4603,10 +5131,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -4614,10 +5142,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -4625,10 +5153,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -4636,10 +5164,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -4647,10 +5175,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -4658,10 +5186,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -4669,10 +5197,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -4680,10 +5208,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -4691,10 +5219,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -4702,10 +5230,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -4713,10 +5241,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -4724,10 +5252,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -4735,10 +5263,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -4746,10 +5274,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -4757,10 +5285,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -4768,10 +5296,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -4779,10 +5307,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -4790,10 +5318,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -4801,10 +5329,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -4812,10 +5340,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -4823,10 +5351,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -4834,10 +5362,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -4845,10 +5373,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -4856,10 +5384,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -4867,10 +5395,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -4878,10 +5406,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -4889,10 +5417,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C44">
         <v>-1</v>
@@ -4900,10 +5428,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -4911,10 +5439,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4922,10 +5450,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -4933,10 +5461,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -4944,10 +5472,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -4955,10 +5483,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -4966,10 +5494,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -4977,10 +5505,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>-1</v>
@@ -4988,10 +5516,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -4999,10 +5527,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C54">
         <v>-1</v>
@@ -5010,10 +5538,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -5021,10 +5549,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -5032,10 +5560,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -5043,10 +5571,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -5054,10 +5582,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -5065,10 +5593,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -5076,10 +5604,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -5087,10 +5615,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -5098,10 +5626,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -5109,10 +5637,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -5120,10 +5648,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -5131,10 +5659,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -5142,10 +5670,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -5153,10 +5681,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -5164,10 +5692,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -5175,10 +5703,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -5186,10 +5714,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -5197,10 +5725,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -5208,10 +5736,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -5219,10 +5747,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -5230,10 +5758,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -5241,10 +5769,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -5252,10 +5780,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -5263,10 +5791,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -5274,10 +5802,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -5285,10 +5813,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -5296,10 +5824,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -5307,10 +5835,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C82">
         <v>-1</v>
@@ -5318,10 +5846,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -5329,10 +5857,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>-1</v>
@@ -5340,10 +5868,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -5351,10 +5879,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C86">
         <v>-1</v>
@@ -5362,10 +5890,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -5373,10 +5901,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C88">
         <v>-1</v>
@@ -5384,10 +5912,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C89">
         <v>-1</v>
@@ -5395,10 +5923,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C90">
         <v>-1</v>
@@ -5406,10 +5934,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C91">
         <v>-1</v>
@@ -5417,10 +5945,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C92">
         <v>-1</v>
@@ -5428,10 +5956,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -5439,10 +5967,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C94">
         <v>-1</v>
@@ -5450,10 +5978,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C95">
         <v>-1</v>
@@ -5461,10 +5989,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <v>-1</v>
@@ -5472,10 +6000,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C97">
         <v>-1</v>
@@ -5483,10 +6011,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -5494,10 +6022,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C99">
         <v>-1</v>
@@ -5505,10 +6033,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C100">
         <v>-1</v>
@@ -5516,10 +6044,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C101">
         <v>-1</v>
@@ -5527,10 +6055,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C102">
         <v>-1</v>
@@ -5538,10 +6066,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C103">
         <v>-1</v>
@@ -5549,10 +6077,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C104">
         <v>-1</v>
@@ -5560,10 +6088,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C105">
         <v>-1</v>
@@ -5571,10 +6099,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C106">
         <v>-1</v>
@@ -5582,10 +6110,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C107">
         <v>-1</v>
@@ -5593,10 +6121,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C108">
         <v>-1</v>
@@ -5604,10 +6132,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C109">
         <v>-1</v>
@@ -5615,10 +6143,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C110">
         <v>-1</v>
@@ -5626,10 +6154,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C111">
         <v>-1</v>
@@ -5637,10 +6165,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C112">
         <v>-1</v>
@@ -5648,10 +6176,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C113">
         <v>-1</v>
@@ -5659,10 +6187,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C114">
         <v>-1</v>
@@ -5670,10 +6198,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C115">
         <v>-1</v>
@@ -5681,10 +6209,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C116">
         <v>-1</v>
@@ -5692,10 +6220,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C117">
         <v>-1</v>
@@ -5703,10 +6231,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C118">
         <v>-1</v>
@@ -5714,10 +6242,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C119">
         <v>-1</v>
@@ -5725,10 +6253,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C120">
         <v>-1</v>
@@ -5736,10 +6264,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C121">
         <v>-1</v>
@@ -5747,10 +6275,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C122">
         <v>-1</v>
@@ -5758,10 +6286,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>-1</v>
@@ -5769,10 +6297,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C124">
         <v>-1</v>
@@ -5780,10 +6308,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>-1</v>
@@ -5791,10 +6319,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C126">
         <v>-1</v>
@@ -5802,10 +6330,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C127">
         <v>-1</v>
@@ -5813,10 +6341,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C128">
         <v>-1</v>
@@ -5824,10 +6352,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C129">
         <v>-1</v>
@@ -5835,10 +6363,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C130">
         <v>-1</v>
@@ -5846,10 +6374,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>-1</v>
@@ -5857,10 +6385,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C132">
         <v>-1</v>
@@ -5868,10 +6396,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C133">
         <v>-1</v>
@@ -5879,10 +6407,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C134">
         <v>-1</v>
@@ -5890,10 +6418,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>-1</v>
@@ -5901,10 +6429,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C136">
         <v>-1</v>
@@ -5912,10 +6440,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C137">
         <v>-1</v>
@@ -5923,10 +6451,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C138">
         <v>-1</v>
@@ -5934,12 +6462,221 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>87</v>
+      </c>
+      <c r="B149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B152" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>91</v>
+      </c>
+      <c r="B158" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158">
         <v>-1</v>
       </c>
     </row>
@@ -5950,7 +6687,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5958,499 +6695,499 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
@@ -6458,462 +7195,642 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
